--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>stupid</t>
   </si>
   <si>
     <t>fucking</t>
@@ -73,31 +79,31 @@
     <t>dangerous</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
@@ -106,36 +112,30 @@
     <t>scary</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>dark</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>[UNK]</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -175,97 +175,88 @@
     <t>powerful</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>important</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>watching</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>positive</t>
@@ -626,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -748,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -795,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>45</v>
@@ -845,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>46</v>
@@ -895,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>47</v>
@@ -945,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,13 +1010,13 @@
         <v>49</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,10 +1039,10 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -1095,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K11">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1195,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K13">
-        <v>0.6153846153846154</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>55</v>
@@ -1322,10 +1313,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1360,13 @@
         <v>56</v>
       </c>
       <c r="K16">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
@@ -1422,10 +1413,10 @@
         <v>0.5</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.65</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -1487,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>0.4444444444444444</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.4285714285714285</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6363636363636364</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K21">
-        <v>0.4242424242424243</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K22">
-        <v>0.3958333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1686,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5957446808510638</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K23">
-        <v>0.375</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -1737,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5942028985507246</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C24">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K24">
-        <v>0.3157894736842105</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1786,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5625</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K25">
-        <v>0.3050847457627119</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1836,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5384615384615384</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K26">
-        <v>0.2358834244080146</v>
+        <v>0.2340619307832423</v>
       </c>
       <c r="L26">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M26">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1886,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1913,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K27">
-        <v>0.2307692307692308</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,13 +1936,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1963,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K28">
-        <v>0.1707317073170732</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1987,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,13 +2010,13 @@
         <v>69</v>
       </c>
       <c r="K29">
-        <v>0.1481481481481481</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,13 +2036,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2063,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K30">
-        <v>0.1408450704225352</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2087,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2095,13 +2086,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4358974358974359</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2113,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K31">
-        <v>0.1304347826086956</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2137,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2145,13 +2136,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2163,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K32">
-        <v>0.1076923076923077</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -2187,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2195,13 +2186,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2213,19 +2204,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K33">
-        <v>0.09836065573770492</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2237,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2245,7 +2236,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3529411764705883</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -2263,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K34">
-        <v>0.07368421052631578</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2287,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>88</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2295,13 +2286,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2313,19 +2304,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K35">
-        <v>0.07058823529411765</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2337,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>79</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2345,13 +2336,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1794871794871795</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2363,19 +2354,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K36">
-        <v>0.0583941605839416</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2387,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>129</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2395,37 +2386,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0505050505050505</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K37">
-        <v>0.0286144578313253</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2437,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>645</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2445,13 +2436,13 @@
         <v>78</v>
       </c>
       <c r="K38">
-        <v>0.02346041055718475</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2463,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>333</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2471,13 +2462,13 @@
         <v>79</v>
       </c>
       <c r="K39">
-        <v>0.02222222222222222</v>
+        <v>0.01440092165898618</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2489,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>308</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2497,13 +2488,13 @@
         <v>80</v>
       </c>
       <c r="K40">
-        <v>0.01792573623559539</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2515,85 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="L41">
-        <v>9</v>
-      </c>
-      <c r="M41">
-        <v>9</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.01497695852534562</v>
-      </c>
-      <c r="L42">
-        <v>26</v>
-      </c>
-      <c r="M42">
-        <v>26</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.01461038961038961</v>
-      </c>
-      <c r="L43">
-        <v>9</v>
-      </c>
-      <c r="M43">
-        <v>9</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>607</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
